--- a/biology/Botanique/Acacia_penninervis/Acacia_penninervis.xlsx
+++ b/biology/Botanique/Acacia_penninervis/Acacia_penninervis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia penninervis est une espèce de mimosa de la famille des Fabaceae selon la classification phylogénétique. Il est originaire de l'est de l'Australie et de Nouvelle-Zélande.
 C'est un arbuste de 2 à 8 mètres de haut aux fleurs blanches à crème qui peuvent apparaître toute l'année.
@@ -512,7 +524,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acacia penninervis var. longiracemosa
 Acacia penninervis var. penninervis</t>
@@ -543,12 +557,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acacia impressa Lindl.
 Acacia penninervis Sieber
 Acacia penninervis DC. var. impressa (Lindl.)Domin
-Racosperma penninerve (DC.)Pedley[2]</t>
+Racosperma penninerve (DC.)Pedley</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ IPNI. International Plant Names Index. Published on the Internet http://www.ipni.org, The Royal Botanic Gardens, Kew, Harvard University Herbaria &amp; Libraries and Australian National Botanic Gardens., consulté le 13 juillet 2020
